--- a/results/resultados_gitlab.xlsx
+++ b/results/resultados_gitlab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,17 +761,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-recipes</t>
+          <t>noosfero/noosfero</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-recipes</t>
+          <t>https://gitlab.com/noosfero/noosfero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shell,Ruby</t>
+          <t>Ruby,JavaScript,HTML,SCSS,Gherkin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -781,7 +781,8 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.travis.yml]
+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -811,7 +812,8 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -843,17 +845,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-shell</t>
+          <t>gitlab-org/omnibus-gitlab</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-shell</t>
+          <t>https://gitlab.com/gitlab-org/omnibus-gitlab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Go,Ruby,Makefile,Shell,Dockerfile</t>
+          <t>Ruby,HTML,Shell,Dockerfile,CSS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -893,7 +895,8 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -925,17 +928,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>noosfero/noosfero</t>
+          <t>davical-project/davical</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://gitlab.com/noosfero/noosfero</t>
+          <t>https://gitlab.com/davical-project/davical</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ruby,JavaScript,HTML,SCSS,Gherkin</t>
+          <t>PHP,PLpgSQL,Perl,Shell,CSS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -945,8 +948,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.travis.yml]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1009,17 +1011,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/omnibus-gitlab</t>
+          <t>fdroid/fdroidclient</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/omnibus-gitlab</t>
+          <t>https://gitlab.com/fdroid/fdroidclient</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ruby,HTML,Shell,Dockerfile,CSS</t>
+          <t>Java,Python,Shell,HTML</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1092,17 +1094,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>davical-project/davical</t>
+          <t>fdroid/fdroidserver</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://gitlab.com/davical-project/davical</t>
+          <t>https://gitlab.com/fdroid/fdroidserver</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PHP,PLpgSQL,Perl,Shell,CSS</t>
+          <t>Python,Shell,Java,Kotlin,Makefile</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1112,7 +1114,8 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.travis.yml]
+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1175,17 +1178,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>fdroid/fdroidclient</t>
+          <t>fdroid/fdroiddata</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://gitlab.com/fdroid/fdroidclient</t>
+          <t>https://gitlab.com/fdroid/fdroiddata</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Java,Python,Shell,HTML</t>
+          <t>Python,Shell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1258,17 +1261,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>fdroid/fdroidserver</t>
+          <t>larryli/gitlab</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://gitlab.com/fdroid/fdroidserver</t>
+          <t>https://gitlab.com/larryli/gitlab</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Python,Shell,Java,Kotlin,Makefile</t>
+          <t>Ruby,HTML,CSS,CoffeeScript,Gherkin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1278,8 +1281,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.travis.yml]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1342,19 +1344,15 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>fdroid/fdroiddata</t>
+          <t>gitlab-com/support-forum</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://gitlab.com/fdroid/fdroiddata</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Python,Shell</t>
-        </is>
-      </c>
+          <t>https://gitlab.com/gitlab-com/support-forum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1425,17 +1423,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>larryli/gitlab</t>
+          <t>pycqa/flake8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://gitlab.com/larryli/gitlab</t>
+          <t>https://gitlab.com/pycqa/flake8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ruby,HTML,CSS,CoffeeScript,Gherkin</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1455,7 +1453,8 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.github/workflows]
+</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1475,8 +1474,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1508,15 +1506,19 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>gitlab-com/support-forum</t>
+          <t>mojo42/Jirafeau</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-com/support-forum</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>https://gitlab.com/mojo42/Jirafeau</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PHP,CSS,Dockerfile,Shell</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1587,17 +1589,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>xonotic/xonotic</t>
+          <t>leanlabsio/kanban</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://gitlab.com/xonotic/xonotic</t>
+          <t>https://gitlab.com/leanlabsio/kanban</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C,C++,Java,Perl,Shell</t>
+          <t>JavaScript,Go,HTML,CSS,Makefile</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1637,7 +1639,8 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1669,17 +1672,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-development-kit</t>
+          <t>embeddable-common-lisp/ecl</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-development-kit</t>
+          <t>https://gitlab.com/embeddable-common-lisp/ecl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ruby,HTML,Shell,Makefile,JavaScript</t>
+          <t>C,Common Lisp,Assembly,Shell,Makefile</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1719,7 +1722,8 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1751,17 +1755,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>pycqa/flake8</t>
+          <t>gnutls/gnutls</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pycqa/flake8</t>
+          <t>https://gitlab.com/gnutls/gnutls</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>C,Assembly,Objective-C,Shell,Makefile</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1782,7 +1786,6 @@
       <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve">[.github/workflows]
-[EXCEPT: ERROR al buscar la ruta en el proyecto]
 </t>
         </is>
       </c>
@@ -1803,7 +1806,8 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1835,17 +1839,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>mojo42/Jirafeau</t>
+          <t>mailman/mailman</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://gitlab.com/mojo42/Jirafeau</t>
+          <t>https://gitlab.com/mailman/mailman</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PHP,CSS,Dockerfile,Shell</t>
+          <t>Python,PLSQL,Mako,Shell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1918,17 +1922,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>leanlabsio/kanban</t>
+          <t>pdfgrep/pdfgrep</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://gitlab.com/leanlabsio/kanban</t>
+          <t>https://gitlab.com/pdfgrep/pdfgrep</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JavaScript,Go,HTML,CSS,Makefile</t>
+          <t>C++,M4,Makefile,Shell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2001,17 +2005,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>embeddable-common-lisp/ecl</t>
+          <t>libvirt/libvirt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://gitlab.com/embeddable-common-lisp/ecl</t>
+          <t>https://gitlab.com/libvirt/libvirt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C,Common Lisp,Assembly,Shell,Makefile</t>
+          <t>C,Python,Meson,Dockerfile,Perl</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2031,7 +2035,8 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.github/workflows]
+</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2084,17 +2089,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>gnutls/gnutls</t>
+          <t>cryptsetup/cryptsetup</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gnutls/gnutls</t>
+          <t>https://gitlab.com/cryptsetup/cryptsetup</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C,Assembly,Objective-C,Shell,Makefile</t>
+          <t>C,Shell,M4,C++,Makefile</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2115,7 +2120,6 @@
       <c r="G21" t="inlineStr">
         <is>
           <t xml:space="preserve">[.github/workflows]
-[EXCEPT: ERROR al buscar la ruta en el proyecto]
 </t>
         </is>
       </c>
@@ -2169,17 +2173,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>git-latexdiff/git-latexdiff</t>
+          <t>o9000/tint2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://gitlab.com/git-latexdiff/git-latexdiff</t>
+          <t>https://gitlab.com/o9000/tint2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shell,Makefile,Batchfile,TeX</t>
+          <t>C,Python,CMake,Shell,C++</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2219,7 +2223,8 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2251,17 +2256,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>mailman/mailman</t>
+          <t>procps-ng/procps</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://gitlab.com/mailman/mailman</t>
+          <t>https://gitlab.com/procps-ng/procps</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Python,PLSQL,Mako,Shell</t>
+          <t>C,Roff,Shell,Makefile,M4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2334,17 +2339,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>sortix/sortix</t>
+          <t>mailman/hyperkitty</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://gitlab.com/sortix/sortix</t>
+          <t>https://gitlab.com/mailman/hyperkitty</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C,C++,Roff,Assembly,Makefile</t>
+          <t>Python,JavaScript,HTML,SCSS,CSS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2384,7 +2389,8 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2416,17 +2422,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>pdfgrep/pdfgrep</t>
+          <t>gitlab-org/gitlab</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pdfgrep/pdfgrep</t>
+          <t>https://gitlab.com/gitlab-org/gitlab</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C++,M4,Makefile,Shell</t>
+          <t>Ruby,JavaScript,Vue,PLpgSQL,Haml</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2499,17 +2505,17 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>libvirt/libvirt</t>
+          <t>esr/reposurgeon</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://gitlab.com/libvirt/libvirt</t>
+          <t>https://gitlab.com/esr/reposurgeon</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C,Python,Meson,Dockerfile,Perl</t>
+          <t>Go,Shell,Scilab,Makefile,Emacs Lisp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2529,9 +2535,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.github/workflows]
-[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2584,17 +2588,17 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>goobook/goobook</t>
+          <t>mailman/postorius</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://gitlab.com/goobook/goobook</t>
+          <t>https://gitlab.com/mailman/postorius</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Python,Shell</t>
+          <t>Python,HTML,JavaScript,Makefile,CSS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2634,7 +2638,8 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2666,17 +2671,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>voxelands/voxelands</t>
+          <t>m2crypto/m2crypto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://gitlab.com/voxelands/voxelands</t>
+          <t>https://gitlab.com/m2crypto/m2crypto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C,RPC,C++,Lua,CMake</t>
+          <t>C,Python,SWIG,C++,Makefile</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2696,7 +2701,8 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.github/workflows]
+</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2716,7 +2722,8 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2748,17 +2755,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>cryptsetup/cryptsetup</t>
+          <t>tortoisegit/tortoisegit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://gitlab.com/cryptsetup/cryptsetup</t>
+          <t>https://gitlab.com/tortoisegit/tortoisegit</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C,Shell,M4,C++,Makefile</t>
+          <t>C++,C,Objective-C,C#,Makefile</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2778,9 +2785,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.github/workflows]
-[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2833,17 +2838,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DerManu/QCustomPlot</t>
+          <t>technomancy/bussard</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://gitlab.com/DerManu/QCustomPlot</t>
+          <t>https://gitlab.com/technomancy/bussard</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C++,Python,QMake,Shell</t>
+          <t>Lua,Shell,GLSL,Makefile,C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2858,7 +2863,8 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.circleci/config.yml]
+</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2915,17 +2921,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>o9000/tint2</t>
+          <t>mayan-edms/mayan-edms</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://gitlab.com/o9000/tint2</t>
+          <t>https://gitlab.com/mayan-edms/mayan-edms</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C,Python,CMake,Shell,C++</t>
+          <t>Python,HTML,JavaScript,Makefile,Shell</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2998,17 +3004,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>procps-ng/procps</t>
+          <t>bitfireAT/icsx5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://gitlab.com/procps-ng/procps</t>
+          <t>https://gitlab.com/bitfireAT/icsx5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C,Roff,Shell,Makefile,M4</t>
+          <t>Kotlin,HTML,Shell</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3081,17 +3087,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-runner</t>
+          <t>sane-project/backends</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-runner</t>
+          <t>https://gitlab.com/sane-project/backends</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Go,Shell,Makefile,PowerShell,Dockerfile</t>
+          <t>C,C++,Roff,Makefile,Java</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3131,7 +3137,8 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3163,17 +3170,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>gnachman/iterm2</t>
+          <t>gitlab-org/release-tools</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gnachman/iterm2</t>
+          <t>https://gitlab.com/gitlab-org/release-tools</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Objective-C,Python,Swift,C,Objective-C++</t>
+          <t>Ruby,Go,HTML,Shell,Dockerfile</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3213,7 +3220,8 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3245,17 +3253,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>mailman/hyperkitty</t>
+          <t>gitlab-org/gitlab-design</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://gitlab.com/mailman/hyperkitty</t>
+          <t>https://gitlab.com/gitlab-org/gitlab-design</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Python,JavaScript,HTML,SCSS,CSS</t>
+          <t>HTML,JavaScript,CoffeeScript,CSS,SCSS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3328,17 +3336,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab</t>
+          <t>gitlab-org/gitlab-runner-docker-cleanup</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab</t>
+          <t>https://gitlab.com/gitlab-org/gitlab-runner-docker-cleanup</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ruby,JavaScript,Vue,PLpgSQL,Haml</t>
+          <t>Go,Makefile,Dockerfile</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3411,17 +3419,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>esr/reposurgeon</t>
+          <t>ase/ase</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://gitlab.com/esr/reposurgeon</t>
+          <t>https://gitlab.com/ase/ase</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Go,Shell,Scilab,Makefile,Emacs Lisp</t>
+          <t>Python,HTML,Makefile,JavaScript,CSS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3494,17 +3502,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>mailman/postorius</t>
+          <t>Commit451/LabCoat</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://gitlab.com/mailman/postorius</t>
+          <t>https://gitlab.com/Commit451/LabCoat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Python,HTML,JavaScript,Makefile,CSS</t>
+          <t>Kotlin,CSS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3514,7 +3522,8 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.travis.yml]
+</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3577,17 +3586,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ddobrev/QtSharp</t>
+          <t>openconnect/ocserv</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://gitlab.com/ddobrev/QtSharp</t>
+          <t>https://gitlab.com/openconnect/ocserv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C#,Lua,Batchfile</t>
+          <t>C,Shell,M4,Makefile,C++</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3627,7 +3636,8 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3659,17 +3669,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>m2crypto/m2crypto</t>
+          <t>NTPsec/ntpsec</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://gitlab.com/m2crypto/m2crypto</t>
+          <t>https://gitlab.com/NTPsec/ntpsec</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C,Python,SWIG,C++,Makefile</t>
+          <t>C,Python,C++,Shell,Yacc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3689,9 +3699,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.github/workflows]
-[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3744,19 +3752,15 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>tortoisegit/tortoisegit</t>
+          <t>gitlab-examples/ssh-private-key</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://gitlab.com/tortoisegit/tortoisegit</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>C++,C,Objective-C,C#,Makefile</t>
-        </is>
-      </c>
+          <t>https://gitlab.com/gitlab-examples/ssh-private-key</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3827,15 +3831,19 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-mattermost</t>
+          <t>gitlab-examples/php</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-mattermost</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>https://gitlab.com/gitlab-examples/php</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3873,7 +3881,8 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3905,17 +3914,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>technomancy/bussard</t>
+          <t>pages/jekyll</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://gitlab.com/technomancy/bussard</t>
+          <t>https://gitlab.com/pages/jekyll</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lua,Shell,GLSL,Makefile,C</t>
+          <t>SCSS,HTML,Ruby</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3930,8 +3939,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.circleci/config.yml]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3956,7 +3964,8 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3988,17 +3997,17 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>mayan-edms/mayan-edms</t>
+          <t>pages/plain-html</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://gitlab.com/mayan-edms/mayan-edms</t>
+          <t>https://gitlab.com/pages/plain-html</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Python,HTML,JavaScript,Makefile,Shell</t>
+          <t>HTML,CSS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4071,17 +4080,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>bitfireAT/icsx5</t>
+          <t>gitlab-org/gitlab-pages</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gitlab.com/bitfireAT/icsx5</t>
+          <t>https://gitlab.com/gitlab-org/gitlab-pages</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Kotlin,HTML,Shell</t>
+          <t>Go,Makefile,HTML,Shell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4154,17 +4163,17 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>sane-project/backends</t>
+          <t>kivymd/KivyMD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://gitlab.com/sane-project/backends</t>
+          <t>https://gitlab.com/kivymd/KivyMD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C,C++,Roff,Makefile,Java</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4237,17 +4246,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/release-tools</t>
+          <t>gpaw/gpaw</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/release-tools</t>
+          <t>https://gitlab.com/gpaw/gpaw</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ruby,Go,HTML,Shell,Dockerfile</t>
+          <t>Python,C,C++</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4320,17 +4329,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-design</t>
+          <t>pages/hugo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-design</t>
+          <t>https://gitlab.com/pages/hugo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HTML,JavaScript,CoffeeScript,CSS,SCSS</t>
+          <t>HTML,CSS,JavaScript</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4403,17 +4412,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-runner-docker-cleanup</t>
+          <t>gitlab-examples/nodejs</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-runner-docker-cleanup</t>
+          <t>https://gitlab.com/gitlab-examples/nodejs</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Go,Makefile,Dockerfile</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4486,17 +4495,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>bitfireAT/davx5-ose</t>
+          <t>pages/hexo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://gitlab.com/bitfireAT/davx5-ose</t>
+          <t>https://gitlab.com/pages/hexo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Kotlin,HTML,Shell,Ruby</t>
+          <t>Stylus,JavaScript,HTML,CSS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4536,7 +4545,8 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4568,17 +4578,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>ase/ase</t>
+          <t>gitlab-com/marketing/general</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://gitlab.com/ase/ase</t>
+          <t>https://gitlab.com/gitlab-com/marketing/general</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Python,HTML,Makefile,JavaScript,CSS</t>
+          <t>HTML,Ruby</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4651,17 +4661,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Commit451/LabCoat</t>
+          <t>gitlab-com/www-remoteonly-org</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://gitlab.com/Commit451/LabCoat</t>
+          <t>https://gitlab.com/gitlab-com/www-remoteonly-org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kotlin,CSS</t>
+          <t>Ruby,HTML,CSS,JavaScript</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4671,8 +4681,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">[.travis.yml]
-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4735,17 +4744,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>openconnect/ocserv</t>
+          <t>pages/pelican</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://gitlab.com/openconnect/ocserv</t>
+          <t>https://gitlab.com/pages/pelican</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C,Shell,M4,Makefile,C++</t>
+          <t>Python,Makefile</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4818,17 +4827,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>NTPsec/ntpsec</t>
+          <t>Rich-Harris/buble</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://gitlab.com/NTPsec/ntpsec</t>
+          <t>https://gitlab.com/Rich-Harris/buble</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C,Python,C++,Shell,Yacc</t>
+          <t>JavaScript,Shell</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4901,12 +4910,12 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-workhorse</t>
+          <t>pages/gitbook</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-workhorse</t>
+          <t>https://gitlab.com/pages/gitbook</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -4947,7 +4956,8 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4979,15 +4989,19 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>gitlab-examples/ssh-private-key</t>
+          <t>gitlab-com/runbooks</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-examples/ssh-private-key</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>https://gitlab.com/gitlab-com/runbooks</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Jsonnet,Ruby,Shell,Go,Makefile</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5058,17 +5072,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>gitlab-examples/php</t>
+          <t>gitlab-org/gitlab-ci-yml</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-examples/php</t>
+          <t>https://gitlab.com/gitlab-org/gitlab-ci-yml</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>Ruby</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5141,17 +5155,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>pages/jekyll</t>
+          <t>xphnx/ameixa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pages/jekyll</t>
+          <t>https://gitlab.com/xphnx/ameixa</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SCSS,HTML,Ruby</t>
+          <t>Java,Shell,CSS,JavaScript,HTML</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5224,17 +5238,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>pages/plain-html</t>
+          <t>gilrs-project/gilrs</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pages/plain-html</t>
+          <t>https://gitlab.com/gilrs-project/gilrs</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HTML,CSS</t>
+          <t>Rust</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5307,17 +5321,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/gitlab-pages</t>
+          <t>fengshaun/syncopoli</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-pages</t>
+          <t>https://gitlab.com/fengshaun/syncopoli</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Go,Makefile,HTML,Shell</t>
+          <t>Java,Makefile</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5390,17 +5404,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>jpbouza/BlenRig</t>
+          <t>gitmate/open-source/gitmate-2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://gitlab.com/jpbouza/BlenRig</t>
+          <t>https://gitlab.com/gitmate/open-source/gitmate-2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Python,Shell</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5440,7 +5454,8 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5472,17 +5487,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>kivymd/KivyMD</t>
+          <t>gitlab-org/gitlab-qa</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://gitlab.com/kivymd/KivyMD</t>
+          <t>https://gitlab.com/gitlab-org/gitlab-qa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Ruby,Shell</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5555,17 +5570,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>gpaw/gpaw</t>
+          <t>foodsharing-dev/foodsharing</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gpaw/gpaw</t>
+          <t>https://gitlab.com/foodsharing-dev/foodsharing</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Python,C,C++</t>
+          <t>PHP,JavaScript,Vue,CSS,HTML</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5638,17 +5653,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>pages/hugo</t>
+          <t>fdroid/privileged-extension</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pages/hugo</t>
+          <t>https://gitlab.com/fdroid/privileged-extension</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HTML,CSS,JavaScript</t>
+          <t>Java,Shell,Makefile,Python</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5721,17 +5736,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>gitlab-examples/nodejs</t>
+          <t>financier/financier</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-examples/nodejs</t>
+          <t>https://gitlab.com/financier/financier</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>JavaScript,HTML,CSS,Dockerfile</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5804,17 +5819,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>pages/hexo</t>
+          <t>NalaGinrut/artanis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pages/hexo</t>
+          <t>https://gitlab.com/NalaGinrut/artanis</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Stylus,JavaScript,HTML,CSS</t>
+          <t>Scheme,Shell,M4,C++,C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5824,7 +5839,8 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.travis.yml]
+</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5887,17 +5903,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>gitlab-com/marketing/general</t>
+          <t>IvanSanchez/Leaflet.GridLayer.GoogleMutant</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-com/marketing/general</t>
+          <t>https://gitlab.com/IvanSanchez/Leaflet.GridLayer.GoogleMutant</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HTML,Ruby</t>
+          <t>JavaScript,HTML</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5970,17 +5986,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>gitlab-org/grafana-dashboards</t>
+          <t>gitlab-examples/review-apps-nginx</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-org/grafana-dashboards</t>
+          <t>https://gitlab.com/gitlab-examples/review-apps-nginx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ruby,Shell</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6020,7 +6036,8 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">[.gitlab-ci.yml]
+</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -6052,17 +6069,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>gitlab-com/www-remoteonly-org</t>
+          <t>psono/psono-server</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-com/www-remoteonly-org</t>
+          <t>https://gitlab.com/psono/psono-server</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ruby,HTML,CSS,JavaScript</t>
+          <t>Python,HTML,Shell,Smarty</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6135,17 +6152,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>pages/pelican</t>
+          <t>stavros/Spamnesty</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pages/pelican</t>
+          <t>https://gitlab.com/stavros/Spamnesty</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Python,Makefile</t>
+          <t>Python,HTML,HCL,Dockerfile,CSS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -6218,17 +6235,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Rich-Harris/buble</t>
+          <t>ganttlab/ganttlab-live</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://gitlab.com/Rich-Harris/buble</t>
+          <t>https://gitlab.com/ganttlab/ganttlab-live</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JavaScript,Shell</t>
+          <t>Vue,JavaScript,CSS,HTML,Shell</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -6301,15 +6318,19 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>pages/gitbook</t>
+          <t>xhang/gitlab</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://gitlab.com/pages/gitbook</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>https://gitlab.com/xhang/gitlab</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ruby,JavaScript,HTML,Vue,CSS</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -6380,17 +6401,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>gitlab-com/runbooks</t>
+          <t>BuildStream/buildstream</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://gitlab.com/gitlab-com/runbooks</t>
+          <t>https://gitlab.com/BuildStream/buildstream</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Jsonnet,Ruby,Shell,Go,Makefile</t>
+          <t>Python,Shell,C,Jsonnet,Makefile</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6455,2422 +6476,6 @@
         </is>
       </c>
       <c r="P73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>gitlab-org/gitlab-ci-yml</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-ci-yml</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Ruby</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>xphnx/ameixa</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/xphnx/ameixa</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Java,Shell,CSS,JavaScript,HTML</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>gitlab-org/ci-cd/docker-machine</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gitlab-org/ci-cd/docker-machine</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Go,Shell,Makefile,Dockerfile</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Millennium_Dawn/Millennium_Dawn</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/Millennium_Dawn/Millennium_Dawn</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>PHP,Python,Lua,C#,C++</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>gitlab-com/gl-infra/infrastructure</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gitlab-com/gl-infra/infrastructure</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>HTML,JavaScript,Shell</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>gilrs-project/gilrs</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gilrs-project/gilrs</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Rust</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>jim.hefferon/linear-algebra</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/jim.hefferon/linear-algebra</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>TeX,Asymptote,Sage,Makefile,Python</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>fengshaun/syncopoli</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/fengshaun/syncopoli</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Java,Makefile</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>gitmate/open-source/gitmate-2</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gitmate/open-source/gitmate-2</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Python,Shell</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>gitlab-org/gitlab-qa</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-qa</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Ruby,Shell</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>foodsharing-dev/foodsharing</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/foodsharing-dev/foodsharing</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>PHP,JavaScript,Vue,CSS,HTML</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>autronix/gitlabci-ec2-deployment-samples-guide</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/autronix/gitlabci-ec2-deployment-samples-guide</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Shell</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Nevax/FreedomOS</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/Nevax/FreedomOS</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Shell,C,Python,C++,Roff</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Mactroll/NoMAD</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/Mactroll/NoMAD</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Swift,C,Objective-C,HTML</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>fdroid/privileged-extension</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/fdroid/privileged-extension</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Java,Shell,Makefile,Python</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>financier/financier</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/financier/financier</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>JavaScript,HTML,CSS,Dockerfile</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>dave_m/clamtk</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/dave_m/clamtk</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Perl</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>vgg/via</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/vgg/via</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>JavaScript,HTML,CSS,Python,MATLAB</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>bitfireAT/NoPhoneSpam</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/bitfireAT/NoPhoneSpam</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>cmdevs/ColonialMarines</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/cmdevs/ColonialMarines</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>DM,HTML,JavaScript,Java,SCSS</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[EXCEPT: ERROR al buscar la ruta en el proyecto]
-</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>NalaGinrut/artanis</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/NalaGinrut/artanis</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Scheme,Shell,M4,C++,C</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.travis.yml]
-</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>IvanSanchez/Leaflet.GridLayer.GoogleMutant</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/IvanSanchez/Leaflet.GridLayer.GoogleMutant</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>JavaScript,HTML</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>gitlab-examples/review-apps-nginx</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gitlab-examples/review-apps-nginx</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>HTML</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>psono/psono-server</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/psono/psono-server</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Python,HTML,Shell,Smarty</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>stavros/Spamnesty</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/stavros/Spamnesty</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Python,HTML,HCL,Dockerfile,CSS</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>gitlab-org/gitlab-docs</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/gitlab-org/gitlab-docs</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Ruby,SCSS,HTML,JavaScript,Vue</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>ganttlab/ganttlab-live</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/ganttlab/ganttlab-live</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Vue,JavaScript,CSS,HTML,Shell</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>xhang/gitlab</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/xhang/gitlab</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Ruby,JavaScript,HTML,Vue,CSS</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>BuildStream/buildstream</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://gitlab.com/BuildStream/buildstream</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Python,Shell,C,Jsonnet,Makefile</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[.gitlab-ci.yml]
-</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
